--- a/result/metrics_values/spring-cloud-shop.xlsx
+++ b/result/metrics_values/spring-cloud-shop.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.0011322316804169028</t>
+          <t>0.0011323039957043244</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>7.83046725507607e-05</t>
+          <t>7.831359527984653e-05</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -608,17 +608,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01652892561983471</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.00015599214604937518</t>
+          <t>0.00015602545588514846</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.384283570416876e-05</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.146727854167732e-05</t>
+          <t>5.147168328809991e-05</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -959,17 +959,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.1116531165311653</t>
+          <t>0.1119241192411924</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.4639758088826174e-05</t>
+          <t>6.483974665189395e-05</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.014008094715233892</t>
+          <t>0.014011085938486332</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.0004255806911878097</t>
+          <t>0.0004256677373671135</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0007529086646234354</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.1212121212121212</t>
         </is>
       </c>
     </row>
